--- a/data/PIB_Cepea.xlsx
+++ b/data/PIB_Cepea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kdatabi-my.sharepoint.com/personal/vitor_kdatabi_com/Documents/K Data BI/Python_Projects/desafio_eleflow/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{890DD9A1-B38E-4ECC-BFF4-C28CF1747234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{890DD9A1-B38E-4ECC-BFF4-C28CF1747234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14ADDC01-4CC7-49D2-A7A1-17654BC39C68}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="3795" windowWidth="17700" windowHeight="8085" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIB" sheetId="3" r:id="rId1"/>
@@ -69,12 +69,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.00000000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -208,9 +208,9 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -227,7 +227,7 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -244,7 +244,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -259,16 +259,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Porcentagem 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Porcentagem 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
     <cellStyle name="Vírgula 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{7818249D-FCD6-40B8-B39A-A32ACE4C5469}"/>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFC92D21"/>
@@ -289,7 +291,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3209,60 +3211,6 @@
       <c r="AI34" s="16"/>
       <c r="AJ34" s="16"/>
     </row>
-    <row r="35" spans="1:36" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:36" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:36" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:36" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:36" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:36" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:36" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:36" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:36" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:36" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:36" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="52" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="53" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="54" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="55" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="56" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="57" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="58" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="59" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="60" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="61" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="62" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="63" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="64" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="89" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
